--- a/hw/help_R.xlsx
+++ b/hw/help_R.xlsx
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,6 +447,10 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -549,10 +553,10 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <f>1-A9/100</f>
@@ -560,9 +564,10 @@
       </c>
       <c r="E9">
         <f>FINV(D9, B9, C9)</f>
-        <v>3.0491250059735542</v>
-      </c>
-    </row>
+        <v>4.3873741874766239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hw/help_R.xlsx
+++ b/hw/help_R.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>T Calculation</t>
   </si>
@@ -78,12 +78,24 @@
   <si>
     <t>F</t>
   </si>
+  <si>
+    <t>Z Calculation</t>
+  </si>
+  <si>
+    <t>cumulative probability</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>2-tail alpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +114,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -131,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -141,6 +161,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,7 +478,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -483,11 +507,11 @@
         <v>95</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <f>B3-1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <f>1-A3/100</f>
@@ -499,7 +523,7 @@
       </c>
       <c r="F3" s="1">
         <f>TINV(D3, C3)</f>
-        <v>2.0484071146628864</v>
+        <v>2.0518304929706712</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -527,7 +551,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -568,6 +592,59 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" customHeight="1"/>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="30">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>0.05</v>
+      </c>
+      <c r="B15" s="1">
+        <f>1-A15/2</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <f>NORMSINV(B15)</f>
+        <v>1.959963984540054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1.96</v>
+      </c>
+      <c r="B18">
+        <f>NORMSDIST(A18)</f>
+        <v>0.97500210485177963</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(2*(1-B18), 2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
